--- a/Check_list Công việc.xlsx
+++ b/Check_list Công việc.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nad\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446A4C9-B106-4DF4-83C6-C5B4A58B9BD7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" xr2:uid="{93FFE1D1-B28A-455F-91B3-B7F3012F92D8}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19380" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="iPhukien" sheetId="5" r:id="rId1"/>
@@ -18,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">iPhukien!$A$3:$L$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -201,17 +195,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,6 +224,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -350,16 +356,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,6 +369,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -378,35 +390,66 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,7 +510,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -519,7 +562,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -713,148 +756,154 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBFAAF7-F81E-4E50-983C-1A7777915091}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="36.58984375" customWidth="1"/>
-    <col min="5" max="5" width="23.76953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.59765625" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" customWidth="1"/>
+    <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A3" s="6" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="7" t="s">
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A4" s="8">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A5" s="8">
+      <c r="L4" s="30">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <f>1+A4</f>
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A6" s="8">
+      <c r="L5" s="30">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f t="shared" ref="A6:A32" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
@@ -863,24 +912,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A7" s="8">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
@@ -889,112 +938,118 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A8" s="8">
+    <row r="8" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="9" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A9" s="8">
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="1" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A10" s="8">
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A11" s="8">
+      <c r="L10" s="30">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="10" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
-      <c r="A12" s="8">
+      <c r="G11" s="34"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="38">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1003,417 +1058,450 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A13" s="8">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A14" s="8">
+      <c r="L13" s="30">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A15" s="8">
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A16" s="8">
+      <c r="L15" s="30">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A17" s="8">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="L16" s="30">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A18" s="8">
+      <c r="L17" s="30">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A19" s="8">
+      <c r="L18" s="30">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17"/>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A20" s="8">
+      <c r="L19" s="30">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A21" s="8">
+      <c r="L20" s="30">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A22" s="8">
+      <c r="L21" s="30">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="1" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A23" s="8">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="1" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A24" s="8">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="31">
+        <v>44291</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A25" s="8">
+      <c r="L24" s="30">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A26" s="8">
+      <c r="L25" s="30">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A27" s="8">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A28" s="8">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A29" s="8">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A30" s="8">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A31" s="8">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
-      <c r="A32" s="8">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L32" xr:uid="{12503A73-C278-4C50-9287-24D54DF4DF31}">
+  <autoFilter ref="A3:L32">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -1423,31 +1511,26 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="61">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F18:H18"/>
@@ -1464,26 +1547,31 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check_list Công việc.xlsx
+++ b/Check_list Công việc.xlsx
@@ -368,65 +368,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -438,18 +384,72 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -756,7 +756,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,7 +768,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -780,48 +780,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="38"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -839,24 +839,24 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="30">
-        <v>44291</v>
+      <c r="L4" s="12">
+        <v>44293</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -864,26 +864,26 @@
         <f>1+A4</f>
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="2"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="30">
-        <v>44291</v>
+      <c r="L5" s="12">
+        <v>44292</v>
       </c>
     </row>
     <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -891,19 +891,19 @@
         <f t="shared" ref="A6:A32" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
@@ -917,19 +917,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
@@ -938,47 +938,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
+    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="20" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="21" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21" t="s">
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -987,49 +987,49 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="30">
-        <v>44292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="L10" s="12">
+        <v>44293</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="33" t="s">
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="38">
-        <v>44293</v>
+      <c r="G11" s="33"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="17">
+        <v>44294</v>
       </c>
     </row>
     <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1037,19 +1037,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1063,76 +1063,76 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="2"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="30">
-        <v>44291</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
+      <c r="L13" s="12">
+        <v>44292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28" t="s">
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="L14" s="29"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
       <c r="E15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="2"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="30">
-        <v>44291</v>
+      <c r="L15" s="12">
+        <v>44292</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -1140,24 +1140,24 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="2"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="30">
-        <v>44291</v>
+      <c r="L16" s="12">
+        <v>44292</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1165,24 +1165,24 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="2"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="30">
-        <v>44291</v>
+      <c r="L17" s="12">
+        <v>44292</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1190,24 +1190,24 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="2"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="30">
-        <v>44291</v>
+      <c r="L18" s="12">
+        <v>44292</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1215,24 +1215,24 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="17"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L19" s="30">
-        <v>44292</v>
+      <c r="L19" s="12">
+        <v>44293</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1240,24 +1240,24 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="30">
-        <v>44291</v>
+      <c r="L20" s="12">
+        <v>44292</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1265,74 +1265,74 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="2"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="30">
-        <v>44293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
+      <c r="L21" s="12">
+        <v>44294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="21" t="s">
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="21" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="L23" s="31">
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L23" s="13">
         <v>44291</v>
       </c>
     </row>
@@ -1341,26 +1341,26 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="30">
-        <v>44293</v>
+      <c r="L24" s="12">
+        <v>44294</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1368,24 +1368,24 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="11" t="s">
+      <c r="F25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="30">
-        <v>44293</v>
+      <c r="L25" s="12">
+        <v>44294</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1393,13 +1393,13 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1409,13 +1409,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1425,13 +1425,13 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1441,13 +1441,13 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1457,13 +1457,13 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1473,13 +1473,13 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1489,13 +1489,13 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1511,26 +1511,31 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="61">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F18:H18"/>
@@ -1547,31 +1552,26 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check_list Công việc.xlsx
+++ b/Check_list Công việc.xlsx
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -387,41 +387,35 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -429,26 +423,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,7 +759,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,7 +771,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -780,48 +783,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -839,17 +842,17 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -859,30 +862,30 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <f>1+A4</f>
         <v>2</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="12">
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="13">
         <v>44292</v>
       </c>
     </row>
@@ -891,19 +894,19 @@
         <f t="shared" ref="A6:A32" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
@@ -917,19 +920,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
@@ -943,17 +946,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
@@ -965,17 +968,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
@@ -987,17 +990,17 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="2"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
@@ -1012,17 +1015,17 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="33"/>
-      <c r="H11" s="34"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
@@ -1037,19 +1040,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1058,30 +1061,30 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="1" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L13" s="12">
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="13">
         <v>44292</v>
       </c>
     </row>
@@ -1090,19 +1093,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
       <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="8"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
@@ -1110,103 +1113,103 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="1" t="s">
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L15" s="12">
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" s="13">
         <v>44292</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="1" t="s">
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L16" s="12">
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="13">
         <v>44292</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="21" t="s">
+    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="1" t="s">
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L17" s="12">
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="13">
         <v>44292</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="1" t="s">
+      <c r="C18" s="37"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L18" s="12">
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="13">
         <v>44292</v>
       </c>
     </row>
@@ -1215,17 +1218,17 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="25"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
@@ -1240,17 +1243,17 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="2"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
@@ -1260,30 +1263,30 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
+    <row r="21" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="1" t="s">
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L21" s="12">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="13">
         <v>44294</v>
       </c>
     </row>
@@ -1292,17 +1295,17 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="26" t="s">
+      <c r="B22" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
@@ -1314,19 +1317,19 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="26" t="s">
+      <c r="B23" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
       <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
@@ -1341,19 +1344,19 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
       <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -1368,17 +1371,17 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
@@ -1393,13 +1396,13 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1409,13 +1412,13 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1425,13 +1428,13 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1441,13 +1444,13 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1457,13 +1460,13 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1473,13 +1476,13 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1489,13 +1492,13 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1511,31 +1514,26 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="61">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F18:H18"/>
@@ -1552,26 +1550,31 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check_list Công việc.xlsx
+++ b/Check_list Công việc.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iphukienv2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E28F88D-5ABE-4944-9960-429FB9DC4B07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19380" windowHeight="12180"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="iPhukien" sheetId="5" r:id="rId1"/>
@@ -12,19 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">iPhukien!$A$3:$L$32</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -195,12 +192,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -356,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -390,6 +387,60 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,57 +452,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,72 +759,72 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="4" max="4" width="36.59765625" customWidth="1"/>
-    <col min="5" max="5" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.796875" customWidth="1"/>
-    <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.58984375" customWidth="1"/>
+    <col min="5" max="5" width="23.76953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.76953125" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="22"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="40"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -838,7 +838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -850,9 +850,9 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -862,7 +862,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A5" s="18">
         <f>1+A4</f>
         <v>2</v>
@@ -889,7 +889,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A6" s="6">
         <f t="shared" ref="A6:A32" si="0">1+A5</f>
         <v>3</v>
@@ -915,7 +915,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -941,7 +941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -963,7 +963,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -985,47 +985,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+      <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="1" t="s">
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L10" s="12">
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="13">
         <v>44293</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="36"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
@@ -1035,7 +1035,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1061,7 +1061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1088,16 +1088,16 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
       <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
@@ -1113,12 +1113,12 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="24"/>
@@ -1138,7 +1138,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1163,7 +1163,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1188,16 +1188,16 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
@@ -1213,16 +1213,16 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A20" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1263,7 +1263,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1290,16 +1290,16 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="38"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
@@ -1312,16 +1312,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
       <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1366,16 +1366,16 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="32"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="1"/>
       <c r="F25" s="23" t="s">
         <v>13</v>
@@ -1391,14 +1391,14 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="1"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
@@ -1407,14 +1407,14 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="32"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="1"/>
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
@@ -1423,14 +1423,14 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
       <c r="E28" s="1"/>
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
@@ -1439,14 +1439,14 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="32"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
       <c r="E29" s="1"/>
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
@@ -1455,14 +1455,14 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="1"/>
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
@@ -1471,14 +1471,14 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="30"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="32"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="1"/>
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
@@ -1487,14 +1487,14 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="1"/>
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
@@ -1504,7 +1504,7 @@
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L32">
+  <autoFilter ref="A3:L32" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -1514,26 +1514,31 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="61">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F18:H18"/>
@@ -1550,31 +1555,26 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check_list Công việc.xlsx
+++ b/Check_list Công việc.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\iphukienv2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E28F88D-5ABE-4944-9960-429FB9DC4B07}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19380" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="iPhukien" sheetId="5" r:id="rId1"/>
@@ -192,12 +186,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -353,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -390,6 +384,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,12 +427,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,33 +449,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,72 +756,72 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="36.58984375" customWidth="1"/>
-    <col min="5" max="5" width="23.76953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.76953125" customWidth="1"/>
-    <col min="12" max="12" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.59765625" customWidth="1"/>
+    <col min="5" max="5" width="23.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.796875" customWidth="1"/>
+    <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -838,21 +835,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -862,24 +859,24 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18">
         <f>1+A4</f>
         <v>2</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
@@ -889,24 +886,24 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" ref="A6:A32" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
@@ -915,24 +912,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="23" t="s">
+      <c r="F7" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
@@ -941,66 +938,66 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
       <c r="E10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8" t="s">
@@ -1010,22 +1007,22 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15" t="s">
@@ -1035,24 +1032,24 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="F12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1061,24 +1058,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
       <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
@@ -1088,24 +1085,24 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
       <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="F14" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
       <c r="I14" s="8"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
@@ -1113,22 +1110,22 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
       <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
@@ -1138,22 +1135,22 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
       <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8" t="s">
@@ -1163,22 +1160,22 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
       <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8" t="s">
@@ -1188,22 +1185,22 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8" t="s">
@@ -1213,22 +1210,22 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
@@ -1238,49 +1235,49 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.75">
-      <c r="A20" s="6">
+    <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="1" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="12">
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L20" s="13">
         <v>44292</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
       <c r="E21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
@@ -1290,46 +1287,46 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
@@ -1339,24 +1336,24 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="23" t="s">
+      <c r="B24" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
       <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -1366,22 +1363,22 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="23" t="s">
+      <c r="F25" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
@@ -1391,120 +1388,120 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="22"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:L32" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A3:L32">
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
     <filterColumn colId="5" showButton="0"/>
@@ -1514,31 +1511,26 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="61">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F18:H18"/>
@@ -1555,26 +1547,31 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check_list Công việc.xlsx
+++ b/Check_list Công việc.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">iPhukien!$A$3:$L$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="55">
   <si>
     <t xml:space="preserve">Check list chức năng Jackmi </t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>Tính năng search chưa code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đồng bộ sản phẩm đã có </t>
+  </si>
+  <si>
+    <t>Webhook đồng bộ sp qua local</t>
   </si>
 </sst>
 </file>
@@ -196,7 +202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,12 +227,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -372,12 +372,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -386,6 +380,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -399,56 +438,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -756,7 +753,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,7 +765,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -780,48 +777,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="24"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -839,17 +836,17 @@
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="34"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
@@ -860,23 +857,23 @@
       </c>
     </row>
     <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18">
+      <c r="A5" s="14">
         <f>1+A4</f>
         <v>2</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
@@ -891,19 +888,19 @@
         <f t="shared" ref="A6:A32" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
@@ -917,19 +914,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
@@ -943,17 +940,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
@@ -965,17 +962,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
@@ -983,21 +980,21 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
+      <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8" t="s">
@@ -1007,28 +1004,28 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="27" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="L11" s="17">
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="13">
         <v>44294</v>
       </c>
     </row>
@@ -1037,19 +1034,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1059,23 +1056,23 @@
       </c>
     </row>
     <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18">
+      <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
@@ -1098,11 +1095,11 @@
       <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
       <c r="I14" s="8"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
@@ -1111,21 +1108,21 @@
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18">
+      <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
@@ -1136,21 +1133,21 @@
       </c>
     </row>
     <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18">
+      <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8" t="s">
@@ -1161,21 +1158,21 @@
       </c>
     </row>
     <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="18">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="26" t="s">
+      <c r="A17" s="14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8" t="s">
@@ -1186,21 +1183,21 @@
       </c>
     </row>
     <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18">
+      <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="37"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
       <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8" t="s">
@@ -1215,17 +1212,17 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="2"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
@@ -1236,21 +1233,21 @@
       </c>
     </row>
     <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8" t="s">
@@ -1261,23 +1258,23 @@
       </c>
     </row>
     <row r="21" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18">
+      <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
@@ -1292,17 +1289,17 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="37"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
@@ -1314,19 +1311,19 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
       <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
@@ -1341,19 +1338,19 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
       <c r="I24" s="2"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -1368,17 +1365,17 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="25" t="s">
+      <c r="F25" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
@@ -1393,13 +1390,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
+      <c r="B26" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1409,13 +1408,15 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
+      <c r="B27" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="20"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1425,13 +1426,13 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1441,13 +1442,13 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1457,13 +1458,13 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="20"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1473,13 +1474,13 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="20"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1489,13 +1490,13 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="20"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1511,26 +1512,31 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="61">
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F18:H18"/>
@@ -1547,31 +1553,26 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Check_list Công việc.xlsx
+++ b/Check_list Công việc.xlsx
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -447,6 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -762,10 +763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -776,7 +777,7 @@
     <col min="12" max="12" width="12.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -790,7 +791,7 @@
       <c r="I1" s="32"/>
       <c r="J1" s="32"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="32"/>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
@@ -802,7 +803,7 @@
       <c r="I2" s="32"/>
       <c r="J2" s="32"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -832,7 +833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -855,8 +856,11 @@
       <c r="L4" s="12">
         <v>44293</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M4" s="39">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <f>1+A4</f>
         <v>2</v>
@@ -883,7 +887,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <f t="shared" ref="A6:A32" si="0">1+A5</f>
         <v>3</v>
@@ -909,7 +913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -935,7 +939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -957,7 +961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -979,7 +983,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1004,7 +1008,7 @@
         <v>44293</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1029,7 +1033,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1055,7 +1059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1082,7 +1086,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1107,7 +1111,7 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1132,7 +1136,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1157,7 +1161,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1182,7 +1186,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1207,7 +1211,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1231,8 +1235,11 @@
       <c r="L19" s="12">
         <v>44293</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M19" s="39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1257,7 +1264,7 @@
         <v>44292</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1284,7 +1291,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1306,7 +1313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1333,7 +1340,7 @@
         <v>44291</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1360,7 +1367,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1385,7 +1392,7 @@
         <v>44294</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1403,7 +1410,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1421,7 +1428,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1437,7 +1444,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1453,7 +1460,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1469,7 +1476,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1485,7 +1492,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="0"/>
         <v>29</v>

--- a/Check_list Công việc.xlsx
+++ b/Check_list Công việc.xlsx
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -370,7 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,6 +383,42 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,12 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,48 +435,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,7 +747,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,7 +759,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -778,48 +771,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="32"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="34"/>
-      <c r="H3" s="35"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="5" t="s">
         <v>5</v>
       </c>
@@ -833,57 +826,57 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+    <row r="4" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
         <v>1</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="1" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="12">
         <v>44293</v>
       </c>
-      <c r="M4" s="39">
+      <c r="M4" s="36">
         <v>0.9</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="13">
         <f>1+A4</f>
         <v>2</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>44292</v>
       </c>
     </row>
@@ -892,19 +885,19 @@
         <f t="shared" ref="A6:A32" si="0">1+A5</f>
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
@@ -918,19 +911,19 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
@@ -944,17 +937,17 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
@@ -966,17 +959,17 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
@@ -984,52 +977,52 @@
       </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="14">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="12">
         <v>44293</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+      <c r="A11" s="16">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="38"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="12">
         <v>44294</v>
       </c>
     </row>
@@ -1038,19 +1031,19 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
       <c r="I12" s="2" t="s">
         <v>8</v>
       </c>
@@ -1060,29 +1053,29 @@
       </c>
     </row>
     <row r="13" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="A13" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>44292</v>
       </c>
     </row>
@@ -1091,19 +1084,19 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="22" t="s">
+      <c r="F14" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="8"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10" t="s">
@@ -1112,182 +1105,182 @@
       <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="A15" s="13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>44292</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="12">
         <v>44292</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B17" s="22" t="s">
+      <c r="A17" s="13">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="12">
         <v>44292</v>
       </c>
     </row>
     <row r="18" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14">
+      <c r="A18" s="13">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
       <c r="E18" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>44292</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+    <row r="19" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="1" t="s">
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="12">
         <v>44293</v>
       </c>
-      <c r="M19" s="39">
+      <c r="M19" s="36">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L20" s="13">
+      <c r="L20" s="12">
         <v>44292</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="22" t="s">
+      <c r="F21" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="12">
         <v>44294</v>
       </c>
     </row>
@@ -1296,17 +1289,17 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="25"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
       <c r="E22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8" t="s">
@@ -1318,74 +1311,74 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
       <c r="E23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L23" s="13">
+      <c r="L23" s="12">
         <v>44291</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+    <row r="24" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="1" t="s">
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="12">
         <v>44294</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
+    <row r="25" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="21" t="s">
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="12">
@@ -1397,15 +1390,15 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1415,15 +1408,15 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -1433,13 +1426,13 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -1449,13 +1442,13 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="31"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -1465,13 +1458,13 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="20"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -1481,13 +1474,13 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
@@ -1497,13 +1490,13 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
@@ -1519,31 +1512,26 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="61">
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="F23:H23"/>
     <mergeCell ref="F24:H24"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="F18:H18"/>
@@ -1560,26 +1548,31 @@
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="F16:H16"/>
     <mergeCell ref="B17:D17"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="F5:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
